--- a/Text/ResultTable.xlsx
+++ b/Text/ResultTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skiv2\OneDrive\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\MasterWork\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3FF88A-BFAB-435C-BF45-AF2BD05FC776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF4991-62A7-477D-9FCE-4EB547977206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15370" activeTab="7" xr2:uid="{D3ADF6A4-700A-4A8A-9299-1DF2855E02F2}"/>
+    <workbookView xWindow="-28635" yWindow="-180" windowWidth="28740" windowHeight="15225" xr2:uid="{D3ADF6A4-700A-4A8A-9299-1DF2855E02F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Day" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>sand500</t>
   </si>
@@ -124,6 +124,36 @@
   </si>
   <si>
     <t>ARIMA(2,1,0)</t>
+  </si>
+  <si>
+    <t>sand500_1923</t>
+  </si>
+  <si>
+    <t>nasdaq_1923</t>
+  </si>
+  <si>
+    <t>jpe_1923</t>
+  </si>
+  <si>
+    <t>dje_1923</t>
+  </si>
+  <si>
+    <t>ARIMA(2,1,2)</t>
+  </si>
+  <si>
+    <t>ARIMA(5,1,9)</t>
+  </si>
+  <si>
+    <t>ARIMA(3,1,3)</t>
+  </si>
+  <si>
+    <t>ARIMA(5,1,1)</t>
+  </si>
+  <si>
+    <t>ARIMA(0,1,3)</t>
+  </si>
+  <si>
+    <t>ARIMA(2,1,1)</t>
   </si>
 </sst>
 </file>
@@ -475,18 +505,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438C3794-272D-434B-A315-715D3A0893A7}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -499,8 +531,20 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -516,8 +560,17 @@
       <c r="E2">
         <v>3.4560102350031499</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>6.6079499999999998</v>
+      </c>
+      <c r="H2">
+        <v>8.2998790000000007</v>
+      </c>
+      <c r="I2">
+        <v>4.8487840000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -533,8 +586,17 @@
       <c r="E3">
         <v>3.456715</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>6.6054620000000002</v>
+      </c>
+      <c r="H3">
+        <v>8.2982119999999995</v>
+      </c>
+      <c r="I3">
+        <v>4.8458329999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -550,73 +612,190 @@
       <c r="E4">
         <v>3.9438469999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>8.1828850000000006</v>
+      </c>
+      <c r="H4">
+        <v>10.579929</v>
+      </c>
+      <c r="I4">
+        <v>5.3315060000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>3.8067519999999999</v>
+      </c>
+      <c r="C5">
+        <v>6.7414699999999996</v>
+      </c>
+      <c r="D5">
+        <v>7.7190279999999998</v>
+      </c>
+      <c r="E5">
+        <v>3.4810240000000001</v>
+      </c>
+      <c r="G5">
+        <v>6.6835990000000001</v>
+      </c>
+      <c r="H5">
+        <v>8.5273889999999994</v>
+      </c>
+      <c r="I5">
+        <v>4.829968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>3.84755</v>
+      </c>
+      <c r="C6">
+        <v>6.9349819999999998</v>
+      </c>
+      <c r="D6">
+        <v>7.5922689999999999</v>
+      </c>
+      <c r="E6">
+        <v>3.4935849999999999</v>
+      </c>
+      <c r="G6">
+        <v>6.7389010000000003</v>
+      </c>
+      <c r="H6">
+        <v>8.2688729999999993</v>
+      </c>
+      <c r="I6">
+        <v>4.8738890000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>6.5509529999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>7.5928839910555297</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>11.1387753348284</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>13.0285230337653</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>6.5685450603872502</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="F8">
+        <v>9.8186635241335303</v>
+      </c>
+      <c r="G8">
+        <v>13.153392183513199</v>
+      </c>
+      <c r="H8">
+        <v>17.962729026670502</v>
+      </c>
+      <c r="I8">
+        <v>8.4762318491859396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>1.7134026561029401</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>2.8948934957427701</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>3.2161438287221</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>1.5120842664495799</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="F9">
+        <v>2.0810266785273202</v>
+      </c>
+      <c r="G9">
+        <v>2.5405558561407902</v>
+      </c>
+      <c r="H9">
+        <v>3.4278432733688602</v>
+      </c>
+      <c r="I9">
+        <v>2.2464960938644598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>1.8473840882773001</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>3.4390670263607501</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>3.3335337470414901</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>1.61693043495663</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="F10">
+        <v>2.2855782152286701</v>
+      </c>
+      <c r="G10">
+        <v>2.8681120791983901</v>
+      </c>
+      <c r="H10">
+        <v>4.1386560672822297</v>
+      </c>
+      <c r="I10">
+        <v>2.42276814989772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B11">
         <v>1.60611327054004</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>1.5979258462419501</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <v>3.0947776926645498</v>
       </c>
-      <c r="E8">
+      <c r="E11">
         <v>1.4551462465385601</v>
+      </c>
+      <c r="F11">
+        <v>1.97049782277786</v>
+      </c>
+      <c r="G11">
+        <v>2.47287642938146</v>
+      </c>
+      <c r="H11">
+        <v>3.41975168038483</v>
+      </c>
+      <c r="I11">
+        <v>1.9434214868225199</v>
       </c>
     </row>
   </sheetData>
@@ -627,18 +806,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011FE71D-ED27-4BB7-979B-21C8A9260921}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -651,8 +832,20 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -668,8 +861,17 @@
       <c r="E2">
         <v>3.5216820000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>6.643459</v>
+      </c>
+      <c r="H2">
+        <v>8.5046040000000005</v>
+      </c>
+      <c r="I2">
+        <v>4.9094119999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -685,8 +887,17 @@
       <c r="E3">
         <v>3.8236349999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>7.8076280000000002</v>
+      </c>
+      <c r="H3">
+        <v>9.6350169999999995</v>
+      </c>
+      <c r="I3">
+        <v>5.2384180000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -702,73 +913,208 @@
       <c r="E4">
         <v>3.5202089999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>7.2528249999999996</v>
+      </c>
+      <c r="H4">
+        <v>9.2101629999999997</v>
+      </c>
+      <c r="I4">
+        <v>4.9351750000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>4.5972479999999996</v>
+      </c>
+      <c r="C5">
+        <v>7.7430349999999999</v>
+      </c>
+      <c r="D5">
+        <v>8.6783909999999995</v>
+      </c>
+      <c r="E5">
+        <v>4.0695259999999998</v>
+      </c>
+      <c r="G5">
+        <v>7.4388459999999998</v>
+      </c>
+      <c r="H5">
+        <v>10.413463999999999</v>
+      </c>
+      <c r="I5">
+        <v>4.8883609999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>3.8697080000000001</v>
+      </c>
+      <c r="C6">
+        <v>6.758222</v>
+      </c>
+      <c r="D6">
+        <v>7.6854339999999999</v>
+      </c>
+      <c r="E6">
+        <v>3.5298970000000001</v>
+      </c>
+      <c r="G6">
+        <v>6.713317</v>
+      </c>
+      <c r="H6">
+        <v>8.4900529999999996</v>
+      </c>
+      <c r="I6">
+        <v>4.920903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>3.9137819999999999</v>
+      </c>
+      <c r="C7">
+        <v>6.9080830000000004</v>
+      </c>
+      <c r="D7">
+        <v>7.988518</v>
+      </c>
+      <c r="E7">
+        <v>3.5688810000000002</v>
+      </c>
+      <c r="G7">
+        <v>6.5287499999999996</v>
+      </c>
+      <c r="H7">
+        <v>9.3068469999999994</v>
+      </c>
+      <c r="I7">
+        <v>4.9489919999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>7.6691701259403899</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>11.1965601814649</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>12.9916139839609</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>6.6024394768211998</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="F8">
+        <v>9.8552232948778205</v>
+      </c>
+      <c r="G8">
+        <v>13.3027845090455</v>
+      </c>
+      <c r="H8">
+        <v>18.053535720184101</v>
+      </c>
+      <c r="I8">
+        <v>8.4916303167087097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>6.4869134481906103</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>8.8838244583244794</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>9.0121483697021105</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>5.8061304527831501</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="F9">
+        <v>7.8659797264616103</v>
+      </c>
+      <c r="G9">
+        <v>9.8222403558175699</v>
+      </c>
+      <c r="H9">
+        <v>11.379641664178401</v>
+      </c>
+      <c r="I9">
+        <v>6.9447088054369601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>3.7123153266168099</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>5.9871911782423499</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>7.7704212135501596</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>3.3309390789304998</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="F10">
+        <v>5.0394440080612801</v>
+      </c>
+      <c r="G10">
+        <v>6.2694552903657197</v>
+      </c>
+      <c r="H10">
+        <v>8.3077883114687001</v>
+      </c>
+      <c r="I10">
+        <v>4.5120213352810499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B11">
         <v>5.6265476203753702</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>8.5444229947828294</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <v>10.1546762500551</v>
       </c>
-      <c r="E8">
+      <c r="E11">
         <v>4.86222263705816</v>
+      </c>
+      <c r="F11">
+        <v>7.2874733259622202</v>
+      </c>
+      <c r="G11">
+        <v>9.9390779710539103</v>
+      </c>
+      <c r="H11">
+        <v>13.705440671528899</v>
+      </c>
+      <c r="I11">
+        <v>6.1149021285508303</v>
       </c>
     </row>
   </sheetData>
@@ -778,18 +1124,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEF0EC1-D25B-451E-97FE-CE691B0179BB}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -802,8 +1150,20 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -819,8 +1179,20 @@
       <c r="E2">
         <v>4.1750790000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>6.1475039999999996</v>
+      </c>
+      <c r="G2">
+        <v>7.3320540000000003</v>
+      </c>
+      <c r="H2">
+        <v>9.9920589999999994</v>
+      </c>
+      <c r="I2">
+        <v>5.7666240000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -836,77 +1208,167 @@
       <c r="E3">
         <v>4.9313650000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>7.4286260000000004</v>
+      </c>
+      <c r="G3">
+        <v>9.9568790000000007</v>
+      </c>
+      <c r="H3">
+        <v>12.220447</v>
+      </c>
+      <c r="I3">
+        <v>6.683281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>6.2401819999999999</v>
+      </c>
+      <c r="C4">
+        <v>10.552731</v>
+      </c>
+      <c r="D4">
+        <v>12.361249000000001</v>
+      </c>
+      <c r="E4">
+        <v>4.7504609999999996</v>
+      </c>
+      <c r="F4">
+        <v>6.8635279999999996</v>
+      </c>
+      <c r="G4">
+        <v>9.2453830000000004</v>
+      </c>
+      <c r="H4">
+        <v>12.855688000000001</v>
+      </c>
+      <c r="I4">
+        <v>5.7332840000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>6.5686750761847499</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>9.47343308800194</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>11.0378152153644</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>5.5772069697670297</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="F5">
+        <v>8.2510125219371506</v>
+      </c>
+      <c r="G5">
+        <v>11.7002635057039</v>
+      </c>
+      <c r="H5">
+        <v>15.386074487592699</v>
+      </c>
+      <c r="I5">
+        <v>7.0280264240303296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>5.9989518179247998</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>8.1624648714374395</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>9.4455256110775707</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>5.9016310669441499</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="F6">
+        <v>6.9855774052403596</v>
+      </c>
+      <c r="G6">
+        <v>9.2415491205545894</v>
+      </c>
+      <c r="H6">
+        <v>11.484467694138599</v>
+      </c>
+      <c r="I6">
+        <v>6.6179309091615304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>7.62090480727373</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>10.0998907417982</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>9.9295426633818202</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>6.7335165815101803</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="F7">
+        <v>8.6121875943392006</v>
+      </c>
+      <c r="G7">
+        <v>10.088519772872999</v>
+      </c>
+      <c r="H7">
+        <v>11.8618066158056</v>
+      </c>
+      <c r="I7">
+        <v>8.0557595652130995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>4.9779765194732404</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>7.9185867502164404</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>9.7977444558010305</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>4.5486470631005798</v>
+      </c>
+      <c r="F8">
+        <v>6.5459246372681497</v>
+      </c>
+      <c r="G8">
+        <v>8.9166902695684804</v>
+      </c>
+      <c r="H8">
+        <v>12.6761110938819</v>
+      </c>
+      <c r="I8">
+        <v>5.4899114943475196</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -915,7 +1377,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1007,15 +1469,15 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>Day!B5</f>
+        <f>Day!B8</f>
         <v>7.5928839910555297</v>
       </c>
       <c r="C3">
-        <f>Week!C5</f>
+        <f>Week!C8</f>
         <v>11.1965601814649</v>
       </c>
       <c r="D3">
-        <f>Month!B4</f>
+        <f>Month!B5</f>
         <v>6.5686750761847499</v>
       </c>
     </row>
@@ -1024,15 +1486,15 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <f>Day!B6</f>
+        <f>Day!B9</f>
         <v>1.7134026561029401</v>
       </c>
       <c r="C4">
-        <f>Week!B6</f>
+        <f>Week!B9</f>
         <v>6.4869134481906103</v>
       </c>
       <c r="D4">
-        <f>Month!B5</f>
+        <f>Month!B6</f>
         <v>5.9989518179247998</v>
       </c>
     </row>
@@ -1041,15 +1503,15 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <f>Day!B7</f>
+        <f>Day!B10</f>
         <v>1.8473840882773001</v>
       </c>
       <c r="C5">
-        <f>Week!B7</f>
+        <f>Week!B10</f>
         <v>3.7123153266168099</v>
       </c>
       <c r="D5">
-        <f>Month!B6</f>
+        <f>Month!B7</f>
         <v>7.62090480727373</v>
       </c>
     </row>
@@ -1058,15 +1520,15 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>Day!B8</f>
+        <f>Day!B11</f>
         <v>1.60611327054004</v>
       </c>
       <c r="C6">
-        <f>Week!B8</f>
+        <f>Week!B11</f>
         <v>5.6265476203753702</v>
       </c>
       <c r="D6">
-        <f>Month!B7</f>
+        <f>Month!B8</f>
         <v>4.9779765194732404</v>
       </c>
     </row>
@@ -1118,15 +1580,15 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>Day!D5</f>
+        <f>Day!D8</f>
         <v>13.0285230337653</v>
       </c>
       <c r="C3">
-        <f>Week!D5</f>
+        <f>Week!D8</f>
         <v>12.9916139839609</v>
       </c>
       <c r="D3">
-        <f>Month!D4</f>
+        <f>Month!D5</f>
         <v>11.0378152153644</v>
       </c>
     </row>
@@ -1135,15 +1597,15 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <f>Day!D6</f>
+        <f>Day!D9</f>
         <v>3.2161438287221</v>
       </c>
       <c r="C4">
-        <f>Week!D6</f>
+        <f>Week!D9</f>
         <v>9.0121483697021105</v>
       </c>
       <c r="D4">
-        <f>Month!D5</f>
+        <f>Month!D6</f>
         <v>9.4455256110775707</v>
       </c>
     </row>
@@ -1152,15 +1614,15 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>Day!D7</f>
+        <f>Day!D10</f>
         <v>3.3335337470414901</v>
       </c>
       <c r="C5">
-        <f>Week!D7</f>
+        <f>Week!D10</f>
         <v>7.7704212135501596</v>
       </c>
       <c r="D5">
-        <f>Month!D6</f>
+        <f>Month!D7</f>
         <v>9.9295426633818202</v>
       </c>
     </row>
@@ -1169,15 +1631,15 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>Day!D8</f>
+        <f>Day!D11</f>
         <v>3.0947776926645498</v>
       </c>
       <c r="C6">
-        <f>Week!D8</f>
+        <f>Week!D11</f>
         <v>10.1546762500551</v>
       </c>
       <c r="D6">
-        <f>Month!D7</f>
+        <f>Month!D8</f>
         <v>9.7977444558010305</v>
       </c>
     </row>
@@ -1229,15 +1691,15 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>Day!E5</f>
+        <f>Day!E8</f>
         <v>6.5685450603872502</v>
       </c>
       <c r="C3">
-        <f>Week!E5</f>
+        <f>Week!E8</f>
         <v>6.6024394768211998</v>
       </c>
       <c r="D3">
-        <f>Month!E4</f>
+        <f>Month!E5</f>
         <v>5.5772069697670297</v>
       </c>
     </row>
@@ -1246,15 +1708,15 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <f>Day!E6</f>
+        <f>Day!E9</f>
         <v>1.5120842664495799</v>
       </c>
       <c r="C4">
-        <f>Week!E6</f>
+        <f>Week!E9</f>
         <v>5.8061304527831501</v>
       </c>
       <c r="D4">
-        <f>Month!E5</f>
+        <f>Month!E6</f>
         <v>5.9016310669441499</v>
       </c>
     </row>
@@ -1263,15 +1725,15 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>Day!E7</f>
+        <f>Day!E10</f>
         <v>1.61693043495663</v>
       </c>
       <c r="C5">
-        <f>Week!E7</f>
+        <f>Week!E10</f>
         <v>3.3309390789304998</v>
       </c>
       <c r="D5">
-        <f>Month!E6</f>
+        <f>Month!E7</f>
         <v>6.7335165815101803</v>
       </c>
     </row>
@@ -1280,15 +1742,15 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>Day!E8</f>
+        <f>Day!E11</f>
         <v>1.4551462465385601</v>
       </c>
       <c r="C6">
-        <f>Week!E8</f>
+        <f>Week!E11</f>
         <v>4.86222263705816</v>
       </c>
       <c r="D6">
-        <f>Month!E7</f>
+        <f>Month!E8</f>
         <v>4.5486470631005798</v>
       </c>
     </row>
@@ -1301,7 +1763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D210552E-A181-4ADE-92BC-5705DB1B808F}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1340,15 +1802,15 @@
         <v>2</v>
       </c>
       <c r="B3" cm="1">
-        <f t="array" ref="B3:B6">Day!C5:C8</f>
+        <f t="array" ref="B3:B6">Day!C8:C11</f>
         <v>11.1387753348284</v>
       </c>
       <c r="C3">
-        <f>Week!C5</f>
+        <f>Week!C8</f>
         <v>11.1965601814649</v>
       </c>
       <c r="D3">
-        <f>Month!C4</f>
+        <f>Month!C5</f>
         <v>9.47343308800194</v>
       </c>
     </row>
@@ -1360,11 +1822,11 @@
         <v>2.8948934957427701</v>
       </c>
       <c r="C4">
-        <f>Week!C6</f>
+        <f>Week!C9</f>
         <v>8.8838244583244794</v>
       </c>
       <c r="D4">
-        <f>Month!C5</f>
+        <f>Month!C6</f>
         <v>8.1624648714374395</v>
       </c>
     </row>
@@ -1376,11 +1838,11 @@
         <v>3.4390670263607501</v>
       </c>
       <c r="C5">
-        <f>Week!C7</f>
+        <f>Week!C10</f>
         <v>5.9871911782423499</v>
       </c>
       <c r="D5">
-        <f>Month!C6</f>
+        <f>Month!C7</f>
         <v>10.0998907417982</v>
       </c>
     </row>
@@ -1392,11 +1854,11 @@
         <v>1.5979258462419501</v>
       </c>
       <c r="C6">
-        <f>Week!C8</f>
+        <f>Week!C11</f>
         <v>8.5444229947828294</v>
       </c>
       <c r="D6">
-        <f>Month!C7</f>
+        <f>Month!C8</f>
         <v>7.9185867502164404</v>
       </c>
     </row>

--- a/Text/ResultTable.xlsx
+++ b/Text/ResultTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\MasterWork\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF4991-62A7-477D-9FCE-4EB547977206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DC7313-FECE-459B-89B0-0C417A79F005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28635" yWindow="-180" windowWidth="28740" windowHeight="15225" xr2:uid="{D3ADF6A4-700A-4A8A-9299-1DF2855E02F2}"/>
+    <workbookView xWindow="-28920" yWindow="-300" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D3ADF6A4-700A-4A8A-9299-1DF2855E02F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Day" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
   <si>
     <t>sand500</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>ARIMA(2,1,1)</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>ARIMA best</t>
   </si>
 </sst>
 </file>
@@ -505,17 +511,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438C3794-272D-434B-A315-715D3A0893A7}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -560,6 +566,9 @@
       <c r="E2">
         <v>3.4560102350031499</v>
       </c>
+      <c r="F2">
+        <v>5.3070760000000003</v>
+      </c>
       <c r="G2">
         <v>6.6079499999999998</v>
       </c>
@@ -586,6 +595,9 @@
       <c r="E3">
         <v>3.456715</v>
       </c>
+      <c r="F3">
+        <v>5.3028630000000003</v>
+      </c>
       <c r="G3">
         <v>6.6054620000000002</v>
       </c>
@@ -612,6 +624,9 @@
       <c r="E4">
         <v>3.9438469999999999</v>
       </c>
+      <c r="F4">
+        <v>5.7712870000000001</v>
+      </c>
       <c r="G4">
         <v>8.1828850000000006</v>
       </c>
@@ -638,6 +653,9 @@
       <c r="E5">
         <v>3.4810240000000001</v>
       </c>
+      <c r="F5">
+        <v>5.3930400000000001</v>
+      </c>
       <c r="G5">
         <v>6.6835990000000001</v>
       </c>
@@ -664,6 +682,9 @@
       <c r="E6">
         <v>3.4935849999999999</v>
       </c>
+      <c r="F6">
+        <v>5.4635090000000002</v>
+      </c>
       <c r="G6">
         <v>6.7389010000000003</v>
       </c>
@@ -678,8 +699,29 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
+      <c r="B7">
+        <v>3.572063</v>
+      </c>
+      <c r="C7">
+        <v>6.645429</v>
+      </c>
+      <c r="D7">
+        <v>7.6761410000000003</v>
+      </c>
+      <c r="E7">
+        <v>3.572063</v>
+      </c>
+      <c r="F7">
+        <v>5.303782</v>
+      </c>
       <c r="G7">
         <v>6.5509529999999998</v>
+      </c>
+      <c r="H7">
+        <v>8.5822479999999999</v>
+      </c>
+      <c r="I7">
+        <v>4.85473</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -796,6 +838,80 @@
       </c>
       <c r="I11">
         <v>1.9434214868225199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <f>MIN(B2:B11)</f>
+        <v>1.60611327054004</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:I14" si="0">MIN(C2:C11)</f>
+        <v>1.5979258462419501</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.0947776926645498</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.4551462465385601</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.97049782277786</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2.47287642938146</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>3.41975168038483</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1.9434214868225199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <f>MIN(B2:B7)</f>
+        <v>3.572063</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:I15" si="1">MIN(C2:C7)</f>
+        <v>6.5213380000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>7.551882</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3.4560102350031499</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5.3028630000000003</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>6.5509529999999998</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>8.2688729999999993</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>4.829968</v>
       </c>
     </row>
   </sheetData>
@@ -806,10 +922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011FE71D-ED27-4BB7-979B-21C8A9260921}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="A14" sqref="A14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -861,6 +977,9 @@
       <c r="E2">
         <v>3.5216820000000002</v>
       </c>
+      <c r="F2">
+        <v>5.3370759999999997</v>
+      </c>
       <c r="G2">
         <v>6.643459</v>
       </c>
@@ -887,6 +1006,9 @@
       <c r="E3">
         <v>3.8236349999999999</v>
       </c>
+      <c r="F3">
+        <v>5.8748690000000003</v>
+      </c>
       <c r="G3">
         <v>7.8076280000000002</v>
       </c>
@@ -913,6 +1035,9 @@
       <c r="E4">
         <v>3.5202089999999999</v>
       </c>
+      <c r="F4">
+        <v>5.795401</v>
+      </c>
       <c r="G4">
         <v>7.2528249999999996</v>
       </c>
@@ -939,6 +1064,9 @@
       <c r="E5">
         <v>4.0695259999999998</v>
       </c>
+      <c r="F5">
+        <v>5.8198460000000001</v>
+      </c>
       <c r="G5">
         <v>7.4388459999999998</v>
       </c>
@@ -965,6 +1093,9 @@
       <c r="E6">
         <v>3.5298970000000001</v>
       </c>
+      <c r="F6">
+        <v>5.4013210000000003</v>
+      </c>
       <c r="G6">
         <v>6.713317</v>
       </c>
@@ -991,6 +1122,9 @@
       <c r="E7">
         <v>3.5688810000000002</v>
       </c>
+      <c r="F7">
+        <v>5.4385820000000002</v>
+      </c>
       <c r="G7">
         <v>6.5287499999999996</v>
       </c>
@@ -1117,17 +1251,92 @@
         <v>6.1149021285508303</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <f>MIN(B2:B11)</f>
+        <v>3.7123153266168099</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:I14" si="0">MIN(C2:C11)</f>
+        <v>5.9871911782423499</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>7.6684200000000002</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3.3309390789304998</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>5.0394440080612801</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>6.2694552903657197</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>8.3077883114687001</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>4.5120213352810499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <f>MIN(B2:B7)</f>
+        <v>3.8575469999999998</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:I15" si="1">MIN(C2:C7)</f>
+        <v>6.6105140000000002</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>7.6684200000000002</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3.5202089999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5.3370759999999997</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>6.5287499999999996</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>8.4900529999999996</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>4.8883609999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEF0EC1-D25B-451E-97FE-CE691B0179BB}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1366,6 +1575,80 @@
         <v>5.4899114943475196</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <f>MIN(B2:B8)</f>
+        <v>4.5557610000000004</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:I14" si="0">MIN(C2:C8)</f>
+        <v>7.6615970000000004</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>9.4455256110775707</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4.1750790000000002</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>6.1475039999999996</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>7.3320540000000003</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>9.9920589999999994</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>5.4899114943475196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <f>MIN(B2:B5)</f>
+        <v>4.5557610000000004</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:I15" si="1">MIN(C2:C5)</f>
+        <v>7.6615970000000004</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>9.5169049999999995</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>4.1750790000000002</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>6.1475039999999996</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>7.3320540000000003</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>9.9920589999999994</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>5.7332840000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1377,7 +1660,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
